--- a/trunk/resultados/mutacion_cruzamiento.xlsx
+++ b/trunk/resultados/mutacion_cruzamiento.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="16">
   <si>
     <t>0,5 - 0,01</t>
   </si>
@@ -59,12 +59,18 @@
   <si>
     <t>Alto Trafico</t>
   </si>
+  <si>
+    <t>Bajo trafico</t>
+  </si>
+  <si>
+    <t>Medio Trafico</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -81,15 +87,36 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -102,8 +129,32 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -111,16 +162,140 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="2" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -160,7 +335,7 @@
             <c:numRef>
               <c:f>Hoja1!$B$1:$D$1</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
                   <c:v>0.01</c:v>
@@ -178,7 +353,7 @@
             <c:numRef>
               <c:f>Hoja1!$B$2:$D$2</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
                   <c:v>16.100000000000001</c:v>
@@ -211,7 +386,7 @@
             <c:numRef>
               <c:f>Hoja1!$B$1:$D$1</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
                   <c:v>0.01</c:v>
@@ -229,7 +404,7 @@
             <c:numRef>
               <c:f>Hoja1!$B$3:$D$3</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
                   <c:v>15.06</c:v>
@@ -262,7 +437,7 @@
             <c:numRef>
               <c:f>Hoja1!$B$1:$D$1</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
                   <c:v>0.01</c:v>
@@ -280,7 +455,7 @@
             <c:numRef>
               <c:f>Hoja1!$B$4:$D$4</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
                   <c:v>16.02</c:v>
@@ -296,12 +471,12 @@
           </c:val>
         </c:ser>
         <c:shape val="box"/>
-        <c:axId val="50030080"/>
-        <c:axId val="50040832"/>
-        <c:axId val="49925184"/>
+        <c:axId val="88298624"/>
+        <c:axId val="88300928"/>
+        <c:axId val="81906752"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="50030080"/>
+        <c:axId val="88298624"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -326,21 +501,21 @@
             <c:manualLayout>
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
-              <c:x val="0.35865419947506572"/>
+              <c:x val="0.35865419947506583"/>
               <c:y val="0.80075678040244958"/>
             </c:manualLayout>
           </c:layout>
         </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="50040832"/>
+        <c:crossAx val="88300928"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="50040832"/>
+        <c:axId val="88300928"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -362,16 +537,15 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
         </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="50030080"/>
+        <c:crossAx val="88298624"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:serAx>
-        <c:axId val="49925184"/>
+        <c:axId val="81906752"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -396,13 +570,13 @@
             <c:manualLayout>
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
-              <c:x val="0.83165026246719198"/>
-              <c:y val="0.63822725284339499"/>
+              <c:x val="0.83165026246719242"/>
+              <c:y val="0.63822725284339543"/>
             </c:manualLayout>
           </c:layout>
         </c:title>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="50040832"/>
+        <c:crossAx val="88300928"/>
         <c:crosses val="autoZero"/>
       </c:serAx>
     </c:plotArea>
@@ -410,7 +584,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
+    <c:pageMargins b="0.75000000000000044" l="0.7000000000000004" r="0.7000000000000004" t="0.75000000000000044" header="0.30000000000000021" footer="0.30000000000000021"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -736,28 +910,34 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G44"/>
+  <dimension ref="A1:L44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="B28" sqref="B28"/>
+    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
+      <selection activeCell="A40" sqref="A40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="18" customWidth="1"/>
-    <col min="3" max="3" width="21.85546875" customWidth="1"/>
-    <col min="4" max="4" width="20.5703125" customWidth="1"/>
+    <col min="2" max="2" width="18" style="2" customWidth="1"/>
+    <col min="3" max="3" width="21.85546875" style="2" customWidth="1"/>
+    <col min="4" max="4" width="20.5703125" style="2" customWidth="1"/>
+    <col min="5" max="5" width="20.7109375" customWidth="1"/>
+    <col min="6" max="6" width="16.85546875" customWidth="1"/>
+    <col min="7" max="7" width="20.28515625" customWidth="1"/>
+    <col min="8" max="8" width="20" customWidth="1"/>
+    <col min="9" max="9" width="15.85546875" customWidth="1"/>
+    <col min="10" max="10" width="16.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" s="1"/>
-      <c r="B1" s="1">
+      <c r="B1" s="14">
         <v>0.01</v>
       </c>
-      <c r="C1" s="1">
+      <c r="C1" s="14">
         <v>0.05</v>
       </c>
-      <c r="D1" s="1">
+      <c r="D1" s="14">
         <v>0.1</v>
       </c>
     </row>
@@ -765,13 +945,13 @@
       <c r="A2" s="1">
         <v>0.5</v>
       </c>
-      <c r="B2" s="3">
+      <c r="B2" s="15">
         <v>16.100000000000001</v>
       </c>
-      <c r="C2" s="3">
+      <c r="C2" s="15">
         <v>15.72</v>
       </c>
-      <c r="D2" s="3">
+      <c r="D2" s="15">
         <v>16.62</v>
       </c>
     </row>
@@ -779,13 +959,13 @@
       <c r="A3" s="1">
         <v>0.8</v>
       </c>
-      <c r="B3" s="3">
+      <c r="B3" s="15">
         <v>15.06</v>
       </c>
-      <c r="C3" s="3">
+      <c r="C3" s="15">
         <v>15.68</v>
       </c>
-      <c r="D3" s="3">
+      <c r="D3" s="15">
         <v>15.48</v>
       </c>
     </row>
@@ -793,25 +973,22 @@
       <c r="A4" s="1">
         <v>1</v>
       </c>
-      <c r="B4" s="3">
+      <c r="B4" s="15">
         <v>16.02</v>
       </c>
-      <c r="C4" s="3">
+      <c r="C4" s="15">
         <v>16.05</v>
       </c>
-      <c r="D4" s="3">
+      <c r="D4" s="15">
         <v>16.03</v>
       </c>
     </row>
     <row r="9" spans="1:7">
-      <c r="C9" t="s">
+      <c r="C9" s="2" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="10" spans="1:7">
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
       <c r="E10" s="2"/>
       <c r="F10" s="1" t="s">
         <v>9</v>
@@ -821,22 +998,22 @@
       </c>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="1" t="s">
+      <c r="A11" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B11">
+      <c r="B11" s="2">
         <v>16.079999999999998</v>
       </c>
-      <c r="C11">
+      <c r="C11" s="2">
         <v>16.11</v>
       </c>
-      <c r="D11">
+      <c r="D11" s="2">
         <v>16.05</v>
       </c>
       <c r="E11">
         <v>16.167999999999999</v>
       </c>
-      <c r="F11">
+      <c r="F11" s="11">
         <f>AVERAGE(B11:E11)</f>
         <v>16.101999999999997</v>
       </c>
@@ -846,7 +1023,7 @@
       </c>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" s="1" t="s">
+      <c r="A12" s="3" t="s">
         <v>1</v>
       </c>
       <c r="B12" s="2">
@@ -861,7 +1038,7 @@
       <c r="E12" s="2">
         <v>15.98</v>
       </c>
-      <c r="F12">
+      <c r="F12" s="4">
         <f t="shared" ref="F12:F18" si="0">AVERAGE(B12:E12)</f>
         <v>15.727499999999999</v>
       </c>
@@ -871,7 +1048,7 @@
       </c>
     </row>
     <row r="13" spans="1:7">
-      <c r="A13" s="1" t="s">
+      <c r="A13" s="3" t="s">
         <v>2</v>
       </c>
       <c r="B13" s="2">
@@ -886,7 +1063,7 @@
       <c r="E13" s="2">
         <v>15.99</v>
       </c>
-      <c r="F13">
+      <c r="F13" s="11">
         <f t="shared" si="0"/>
         <v>16.377500000000001</v>
       </c>
@@ -896,7 +1073,7 @@
       </c>
     </row>
     <row r="14" spans="1:7">
-      <c r="A14" s="1" t="s">
+      <c r="A14" s="3" t="s">
         <v>3</v>
       </c>
       <c r="B14" s="2">
@@ -909,7 +1086,7 @@
         <v>16.55</v>
       </c>
       <c r="E14" s="2"/>
-      <c r="F14" s="2">
+      <c r="F14" s="5">
         <f>AVERAGE(B14:D14)</f>
         <v>15.911733333333336</v>
       </c>
@@ -919,7 +1096,7 @@
       </c>
     </row>
     <row r="15" spans="1:7">
-      <c r="A15" s="1" t="s">
+      <c r="A15" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B15" s="2">
@@ -934,7 +1111,7 @@
       <c r="E15" s="2">
         <v>15.6</v>
       </c>
-      <c r="F15">
+      <c r="F15" s="4">
         <f t="shared" si="0"/>
         <v>15.682499999999999</v>
       </c>
@@ -944,7 +1121,7 @@
       </c>
     </row>
     <row r="16" spans="1:7">
-      <c r="A16" s="1" t="s">
+      <c r="A16" s="3" t="s">
         <v>5</v>
       </c>
       <c r="B16" s="2">
@@ -967,7 +1144,7 @@
       </c>
     </row>
     <row r="17" spans="1:7">
-      <c r="A17" s="1" t="s">
+      <c r="A17" s="3" t="s">
         <v>7</v>
       </c>
       <c r="B17" s="2">
@@ -992,7 +1169,7 @@
       </c>
     </row>
     <row r="18" spans="1:7">
-      <c r="A18" s="1" t="s">
+      <c r="A18" s="3" t="s">
         <v>6</v>
       </c>
       <c r="B18" s="2">
@@ -1017,7 +1194,7 @@
       </c>
     </row>
     <row r="19" spans="1:7">
-      <c r="A19" s="1" t="s">
+      <c r="A19" s="3" t="s">
         <v>8</v>
       </c>
       <c r="B19" s="2">
@@ -1042,28 +1219,19 @@
       </c>
     </row>
     <row r="20" spans="1:7">
-      <c r="B20" s="2"/>
-      <c r="C20" s="2"/>
-      <c r="D20" s="2"/>
       <c r="E20" s="2"/>
       <c r="F20" s="2"/>
     </row>
     <row r="21" spans="1:7">
-      <c r="B21" s="2"/>
-      <c r="C21" s="2"/>
-      <c r="D21" s="2"/>
       <c r="E21" s="2"/>
       <c r="F21" s="2"/>
     </row>
     <row r="22" spans="1:7">
-      <c r="C22" s="1" t="s">
+      <c r="C22" s="14" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="23" spans="1:7">
-      <c r="B23" s="2"/>
-      <c r="C23" s="2"/>
-      <c r="D23" s="2"/>
       <c r="E23" s="2"/>
       <c r="F23" s="1" t="s">
         <v>9</v>
@@ -1073,29 +1241,33 @@
       </c>
     </row>
     <row r="24" spans="1:7">
-      <c r="A24" s="1" t="s">
+      <c r="A24" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B24">
-        <v>1</v>
-      </c>
+      <c r="B24" s="16">
+        <v>16.5</v>
+      </c>
+      <c r="C24" s="2">
+        <v>16.228400000000001</v>
+      </c>
+      <c r="D24" s="2">
+        <v>16.55</v>
+      </c>
+      <c r="E24" s="13"/>
       <c r="F24">
         <f>AVERAGE(B24:E24)</f>
+        <v>16.426133333333336</v>
+      </c>
+      <c r="G24">
+        <f>STDEV(B24:E24)</f>
+        <v>0.17305737006345775</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="G24" t="e">
-        <f>STDEV(B24:E24)</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7">
-      <c r="A25" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B25" s="2"/>
-      <c r="C25" s="2"/>
-      <c r="D25" s="2"/>
-      <c r="E25" s="2"/>
+      <c r="E25" s="13"/>
       <c r="F25" t="e">
         <f t="shared" ref="F25:F26" si="2">AVERAGE(B25:E25)</f>
         <v>#DIV/0!</v>
@@ -1106,37 +1278,39 @@
       </c>
     </row>
     <row r="26" spans="1:7">
-      <c r="A26" s="1" t="s">
+      <c r="A26" s="7" t="s">
         <v>2</v>
       </c>
       <c r="B26" s="2">
         <v>16.23</v>
       </c>
-      <c r="C26" s="2"/>
-      <c r="D26" s="2"/>
-      <c r="E26" s="2"/>
+      <c r="C26" s="2">
+        <v>16.355599999999999</v>
+      </c>
+      <c r="D26" s="2">
+        <v>16.29</v>
+      </c>
+      <c r="E26" s="13"/>
       <c r="F26">
         <f t="shared" si="2"/>
-        <v>16.23</v>
-      </c>
-      <c r="G26" t="e">
+        <v>16.291866666666667</v>
+      </c>
+      <c r="G26">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
+        <v>6.2820803348359419E-2</v>
       </c>
     </row>
     <row r="27" spans="1:7">
-      <c r="A27" s="1" t="s">
+      <c r="A27" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="B27" s="2">
-        <v>1</v>
-      </c>
-      <c r="C27" s="2"/>
-      <c r="D27" s="2"/>
-      <c r="E27" s="2"/>
+      <c r="B27" s="16">
+        <v>16.5</v>
+      </c>
+      <c r="E27" s="13"/>
       <c r="F27" s="2">
         <f>AVERAGE(B27:D27)</f>
-        <v>1</v>
+        <v>16.5</v>
       </c>
       <c r="G27" t="e">
         <f t="shared" si="3"/>
@@ -1144,13 +1318,11 @@
       </c>
     </row>
     <row r="28" spans="1:7">
-      <c r="A28" s="1" t="s">
+      <c r="A28" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="B28" s="4"/>
-      <c r="C28" s="2"/>
-      <c r="D28" s="2"/>
-      <c r="E28" s="2"/>
+      <c r="B28" s="6"/>
+      <c r="E28" s="13"/>
       <c r="F28" t="e">
         <f t="shared" ref="F28" si="4">AVERAGE(B28:E28)</f>
         <v>#DIV/0!</v>
@@ -1161,13 +1333,10 @@
       </c>
     </row>
     <row r="29" spans="1:7">
-      <c r="A29" s="1" t="s">
+      <c r="A29" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="B29" s="2"/>
-      <c r="C29" s="2"/>
-      <c r="D29" s="2"/>
-      <c r="E29" s="2"/>
+      <c r="E29" s="13"/>
       <c r="F29" s="2" t="e">
         <f>AVERAGE(B29:D29)</f>
         <v>#DIV/0!</v>
@@ -1178,13 +1347,10 @@
       </c>
     </row>
     <row r="30" spans="1:7">
-      <c r="A30" s="1" t="s">
+      <c r="A30" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="B30" s="2"/>
-      <c r="C30" s="2"/>
-      <c r="D30" s="2"/>
-      <c r="E30" s="2"/>
+      <c r="E30" s="13"/>
       <c r="F30" t="e">
         <f t="shared" ref="F30:F31" si="5">AVERAGE(B30:E30)</f>
         <v>#DIV/0!</v>
@@ -1195,13 +1361,10 @@
       </c>
     </row>
     <row r="31" spans="1:7">
-      <c r="A31" s="1" t="s">
+      <c r="A31" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="B31" s="2"/>
-      <c r="C31" s="2"/>
-      <c r="D31" s="2"/>
-      <c r="E31" s="2"/>
+      <c r="E31" s="13"/>
       <c r="F31" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
@@ -1212,13 +1375,10 @@
       </c>
     </row>
     <row r="32" spans="1:7">
-      <c r="A32" s="1" t="s">
+      <c r="A32" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="B32" s="2"/>
-      <c r="C32" s="2"/>
-      <c r="D32" s="2"/>
-      <c r="E32" s="2"/>
+      <c r="E32" s="13"/>
       <c r="F32" s="2" t="e">
         <f>AVERAGE(B32:E32)</f>
         <v>#DIV/0!</v>
@@ -1228,170 +1388,335 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="34" spans="1:7">
-      <c r="C34" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7">
-      <c r="B35" s="2"/>
-      <c r="C35" s="2"/>
-      <c r="D35" s="2"/>
+    <row r="33" spans="1:12">
+      <c r="E33" s="13"/>
+    </row>
+    <row r="34" spans="1:12">
+      <c r="E34" s="13"/>
+    </row>
+    <row r="35" spans="1:12" ht="15.75" thickBot="1">
+      <c r="C35" s="14" t="s">
+        <v>14</v>
+      </c>
       <c r="E35" s="2"/>
       <c r="F35" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G35" s="1"/>
+      <c r="I35" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="K35" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="G35" s="1" t="s">
+      <c r="L35" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="36" spans="1:7">
-      <c r="A36" s="1" t="s">
+    <row r="36" spans="1:12">
+      <c r="A36" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="F36" t="e">
-        <f>AVERAGE(B36:E36)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G36" t="e">
-        <f>STDEV(B36:E36)</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7">
-      <c r="A37" s="1" t="s">
+      <c r="B36" s="16">
+        <v>16.5</v>
+      </c>
+      <c r="C36" s="2">
+        <v>16.228400000000001</v>
+      </c>
+      <c r="D36" s="2">
+        <v>16.55</v>
+      </c>
+      <c r="E36" s="17">
+        <v>16.079999999999998</v>
+      </c>
+      <c r="F36" s="18">
+        <v>16.11</v>
+      </c>
+      <c r="G36" s="19">
+        <v>16.05</v>
+      </c>
+      <c r="H36" s="17"/>
+      <c r="I36" s="18"/>
+      <c r="J36" s="19"/>
+      <c r="K36" s="20">
+        <f>AVERAGE(B36:J36)</f>
+        <v>16.253066666666665</v>
+      </c>
+      <c r="L36" s="20">
+        <f>STDEV(B36:J36)</f>
+        <v>0.21973171520441681</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12">
+      <c r="A37" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="B37" s="2"/>
-      <c r="C37" s="2"/>
-      <c r="D37" s="2"/>
-      <c r="E37" s="2"/>
-      <c r="F37" t="e">
-        <f t="shared" ref="F37:F38" si="7">AVERAGE(B37:E37)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G37" t="e">
-        <f t="shared" ref="G37:G40" si="8">STDEV(B37:E37)</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7">
-      <c r="A38" s="1" t="s">
+      <c r="B37" s="2">
+        <v>15.76</v>
+      </c>
+      <c r="C37" s="2">
+        <v>15.68</v>
+      </c>
+      <c r="D37" s="2">
+        <v>15.54</v>
+      </c>
+      <c r="E37" s="21">
+        <v>15.39</v>
+      </c>
+      <c r="F37" s="22">
+        <v>15.6</v>
+      </c>
+      <c r="G37" s="23">
+        <v>15.94</v>
+      </c>
+      <c r="H37" s="21"/>
+      <c r="I37" s="22"/>
+      <c r="J37" s="23"/>
+      <c r="K37" s="20">
+        <f t="shared" ref="K37:K44" si="7">AVERAGE(B37:J37)</f>
+        <v>15.651666666666666</v>
+      </c>
+      <c r="L37" s="20">
+        <f t="shared" ref="L37:L44" si="8">STDEV(B37:J37)</f>
+        <v>0.18935856639358042</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12">
+      <c r="A38" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="B38" s="2"/>
-      <c r="C38" s="2"/>
-      <c r="D38" s="2"/>
-      <c r="E38" s="2"/>
-      <c r="F38" t="e">
+      <c r="B38" s="2">
+        <v>16.23</v>
+      </c>
+      <c r="C38" s="2">
+        <v>16.355599999999999</v>
+      </c>
+      <c r="D38" s="2">
+        <v>16.29</v>
+      </c>
+      <c r="E38" s="21">
+        <v>16.62</v>
+      </c>
+      <c r="F38" s="22">
+        <v>16.8</v>
+      </c>
+      <c r="G38" s="23">
+        <v>16.100000000000001</v>
+      </c>
+      <c r="H38" s="21"/>
+      <c r="I38" s="22"/>
+      <c r="J38" s="23"/>
+      <c r="K38" s="20">
         <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G38" t="e">
+        <v>16.399266666666666</v>
+      </c>
+      <c r="L38" s="20">
         <f t="shared" si="8"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7">
+        <v>0.26129222465790664</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12">
       <c r="A39" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B39" s="2"/>
-      <c r="C39" s="2"/>
-      <c r="D39" s="2"/>
-      <c r="E39" s="2"/>
-      <c r="F39" s="2" t="e">
-        <f>AVERAGE(B39:D39)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G39" t="e">
+      <c r="B39" s="16">
+        <v>16.5</v>
+      </c>
+      <c r="C39" s="2">
+        <v>16.02</v>
+      </c>
+      <c r="D39" s="2">
+        <v>16.86</v>
+      </c>
+      <c r="E39" s="21">
+        <v>15.065200000000001</v>
+      </c>
+      <c r="F39" s="22">
+        <v>16.12</v>
+      </c>
+      <c r="G39" s="23">
+        <v>16.55</v>
+      </c>
+      <c r="H39" s="21"/>
+      <c r="I39" s="22"/>
+      <c r="J39" s="23"/>
+      <c r="K39" s="20">
+        <f t="shared" si="7"/>
+        <v>16.185866666666666</v>
+      </c>
+      <c r="L39" s="20">
         <f t="shared" si="8"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7">
-      <c r="A40" s="1" t="s">
+        <v>0.6282471700427319</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12">
+      <c r="A40" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="B40" s="2"/>
-      <c r="C40" s="2"/>
-      <c r="D40" s="2"/>
-      <c r="E40" s="2"/>
-      <c r="F40" t="e">
-        <f t="shared" ref="F40" si="9">AVERAGE(B40:E40)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G40" t="e">
+      <c r="B40" s="6">
+        <v>15.98</v>
+      </c>
+      <c r="C40" s="2">
+        <v>16.43</v>
+      </c>
+      <c r="D40" s="2">
+        <v>16.25</v>
+      </c>
+      <c r="E40" s="21">
+        <v>15.88</v>
+      </c>
+      <c r="F40" s="22">
+        <v>15.7</v>
+      </c>
+      <c r="G40" s="23">
+        <v>15.55</v>
+      </c>
+      <c r="H40" s="21"/>
+      <c r="I40" s="22"/>
+      <c r="J40" s="23"/>
+      <c r="K40" s="20">
+        <f t="shared" si="7"/>
+        <v>15.964999999999998</v>
+      </c>
+      <c r="L40" s="20">
         <f t="shared" si="8"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7">
+        <v>0.3308625092090387</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12">
       <c r="A41" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B41" s="2"/>
-      <c r="C41" s="2"/>
-      <c r="D41" s="2"/>
-      <c r="E41" s="2"/>
-      <c r="F41" s="2" t="e">
-        <f>AVERAGE(B41:D41)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G41" t="e">
-        <f>STDEV(B41:E41)</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7">
-      <c r="A42" s="1" t="s">
+      <c r="B41" s="2">
+        <v>16.36</v>
+      </c>
+      <c r="C41" s="2">
+        <v>16.41</v>
+      </c>
+      <c r="D41" s="2">
+        <v>15.99</v>
+      </c>
+      <c r="E41" s="21">
+        <v>15.48</v>
+      </c>
+      <c r="F41" s="22">
+        <v>15.99</v>
+      </c>
+      <c r="G41" s="23">
+        <v>16.82</v>
+      </c>
+      <c r="H41" s="21"/>
+      <c r="I41" s="22"/>
+      <c r="J41" s="23"/>
+      <c r="K41" s="20">
+        <f t="shared" si="7"/>
+        <v>16.174999999999997</v>
+      </c>
+      <c r="L41" s="20">
+        <f t="shared" si="8"/>
+        <v>0.45977168246867267</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12">
+      <c r="A42" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="B42" s="2"/>
-      <c r="C42" s="2"/>
-      <c r="D42" s="2"/>
-      <c r="E42" s="2"/>
-      <c r="F42" t="e">
-        <f t="shared" ref="F42:F43" si="10">AVERAGE(B42:E42)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G42" t="e">
-        <f t="shared" ref="G42:G43" si="11">STDEV(B42:E42)</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7">
-      <c r="A43" s="1" t="s">
+      <c r="B42" s="2">
+        <v>16.21</v>
+      </c>
+      <c r="C42" s="2">
+        <v>16.84</v>
+      </c>
+      <c r="D42" s="2">
+        <v>16.739999999999998</v>
+      </c>
+      <c r="E42" s="21">
+        <v>15.83</v>
+      </c>
+      <c r="F42" s="22">
+        <v>15.8</v>
+      </c>
+      <c r="G42" s="23">
+        <v>16.18</v>
+      </c>
+      <c r="H42" s="21"/>
+      <c r="I42" s="22"/>
+      <c r="J42" s="23"/>
+      <c r="K42" s="20">
+        <f t="shared" si="7"/>
+        <v>16.266666666666666</v>
+      </c>
+      <c r="L42" s="20">
+        <f t="shared" si="8"/>
+        <v>0.44089303313472966</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12">
+      <c r="A43" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="B43" s="2"/>
-      <c r="C43" s="2"/>
-      <c r="D43" s="2"/>
-      <c r="E43" s="2"/>
-      <c r="F43" t="e">
-        <f t="shared" si="10"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G43" t="e">
-        <f t="shared" si="11"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7">
-      <c r="A44" s="1" t="s">
+      <c r="B43" s="2">
+        <v>15.77</v>
+      </c>
+      <c r="C43" s="2">
+        <v>16.21</v>
+      </c>
+      <c r="D43" s="2">
+        <v>16.239999999999998</v>
+      </c>
+      <c r="E43" s="21">
+        <v>16.07</v>
+      </c>
+      <c r="F43" s="22">
+        <v>15.93</v>
+      </c>
+      <c r="G43" s="23">
+        <v>15.9</v>
+      </c>
+      <c r="H43" s="21"/>
+      <c r="I43" s="22"/>
+      <c r="J43" s="23"/>
+      <c r="K43" s="20">
+        <f t="shared" si="7"/>
+        <v>16.02</v>
+      </c>
+      <c r="L43" s="20">
+        <f t="shared" si="8"/>
+        <v>0.18547236990968263</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" ht="15.75" thickBot="1">
+      <c r="A44" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="B44" s="2"/>
-      <c r="C44" s="2"/>
-      <c r="D44" s="2"/>
-      <c r="E44" s="2"/>
-      <c r="F44" s="2" t="e">
-        <f>AVERAGE(B44:E44)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G44" t="e">
-        <f>STDEV(B44:E44)</f>
-        <v>#DIV/0!</v>
+      <c r="B44" s="2">
+        <v>15.99</v>
+      </c>
+      <c r="C44" s="2">
+        <v>16.48</v>
+      </c>
+      <c r="D44" s="2">
+        <v>16.3</v>
+      </c>
+      <c r="E44" s="24">
+        <v>15.836499999999999</v>
+      </c>
+      <c r="F44" s="25">
+        <v>15.803699999999999</v>
+      </c>
+      <c r="G44" s="26">
+        <v>16.18</v>
+      </c>
+      <c r="H44" s="24"/>
+      <c r="I44" s="25"/>
+      <c r="J44" s="26"/>
+      <c r="K44" s="20">
+        <f t="shared" si="7"/>
+        <v>16.098366666666667</v>
+      </c>
+      <c r="L44" s="20">
+        <f t="shared" si="8"/>
+        <v>0.26836912390688727</v>
       </c>
     </row>
   </sheetData>

--- a/trunk/resultados/mutacion_cruzamiento.xlsx
+++ b/trunk/resultados/mutacion_cruzamiento.xlsx
@@ -11,6 +11,9 @@
     <sheet name="Hoja2" sheetId="2" r:id="rId2"/>
     <sheet name="Hoja3" sheetId="3" r:id="rId3"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId4"/>
+  </externalReferences>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
@@ -458,12 +461,12 @@
           </c:val>
         </c:ser>
         <c:shape val="box"/>
-        <c:axId val="73295360"/>
-        <c:axId val="73310208"/>
-        <c:axId val="72928768"/>
+        <c:axId val="79664256"/>
+        <c:axId val="81243520"/>
+        <c:axId val="61001216"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="73295360"/>
+        <c:axId val="79664256"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -495,14 +498,14 @@
         </c:title>
         <c:numFmt formatCode="0.00" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="73310208"/>
+        <c:crossAx val="81243520"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="73310208"/>
+        <c:axId val="81243520"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -528,12 +531,12 @@
         </c:title>
         <c:numFmt formatCode="0.00" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="73295360"/>
+        <c:crossAx val="79664256"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:serAx>
-        <c:axId val="72928768"/>
+        <c:axId val="61001216"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -558,13 +561,13 @@
             <c:manualLayout>
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
-              <c:x val="0.83165026246719276"/>
-              <c:y val="0.63822725284339576"/>
+              <c:x val="0.83165026246719298"/>
+              <c:y val="0.63822725284339599"/>
             </c:manualLayout>
           </c:layout>
         </c:title>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="73310208"/>
+        <c:crossAx val="81243520"/>
         <c:crosses val="autoZero"/>
       </c:serAx>
     </c:plotArea>
@@ -572,7 +575,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000078" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000078" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000089" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000089" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -611,6 +614,29 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Hoja1"/>
+      <sheetName val="Hoja2"/>
+      <sheetName val="Hoja3"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="26">
+          <cell r="B26">
+            <v>0.18862281309309559</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1" refreshError="1"/>
+      <sheetData sheetId="2" refreshError="1"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -900,8 +926,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:N34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N23" sqref="N23"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="L17" sqref="L17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -1055,8 +1081,8 @@
         <v>16.094266666666666</v>
       </c>
       <c r="L17" s="36">
-        <f>STDEV(B17:J17)</f>
-        <v>0.30483411882534711</v>
+        <f>[1]Hoja1!$B$26</f>
+        <v>0.18862281309309559</v>
       </c>
     </row>
     <row r="18" spans="1:14">

--- a/trunk/resultados/mutacion_cruzamiento.xlsx
+++ b/trunk/resultados/mutacion_cruzamiento.xlsx
@@ -461,12 +461,12 @@
           </c:val>
         </c:ser>
         <c:shape val="box"/>
-        <c:axId val="79664256"/>
-        <c:axId val="81243520"/>
-        <c:axId val="61001216"/>
+        <c:axId val="60626048"/>
+        <c:axId val="60628352"/>
+        <c:axId val="79798720"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="79664256"/>
+        <c:axId val="60626048"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -478,11 +478,15 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr/>
+                  <a:defRPr sz="1800"/>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t>pm</a:t>
+                  <a:rPr lang="en-US" sz="1800"/>
+                  <a:t>p</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1100"/>
+                  <a:t>M</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -491,21 +495,31 @@
             <c:manualLayout>
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
-              <c:x val="0.35865419947506588"/>
-              <c:y val="0.80075678040244958"/>
+              <c:x val="0.37153113660937848"/>
+              <c:y val="0.80870275538738889"/>
             </c:manualLayout>
           </c:layout>
         </c:title>
         <c:numFmt formatCode="0.00" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="81243520"/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400"/>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="60628352"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="81243520"/>
+        <c:axId val="60628352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -521,7 +535,7 @@
                   <a:defRPr/>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US"/>
+                  <a:rPr lang="en-US" sz="1800"/>
                   <a:t>Fitness promedio</a:t>
                 </a:r>
               </a:p>
@@ -531,12 +545,22 @@
         </c:title>
         <c:numFmt formatCode="0.00" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="79664256"/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400"/>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="60626048"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:serAx>
-        <c:axId val="61001216"/>
+        <c:axId val="79798720"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -548,11 +572,15 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr/>
+                  <a:defRPr sz="1800"/>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t>pc</a:t>
+                  <a:rPr lang="en-US" sz="1800"/>
+                  <a:t>p</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1100"/>
+                  <a:t>C</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -561,13 +589,23 @@
             <c:manualLayout>
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
-              <c:x val="0.83165026246719298"/>
-              <c:y val="0.63822725284339599"/>
+              <c:x val="0.84494631584838753"/>
+              <c:y val="0.67024811963685116"/>
             </c:manualLayout>
           </c:layout>
         </c:title>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="81243520"/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400"/>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="60628352"/>
         <c:crosses val="autoZero"/>
       </c:serAx>
     </c:plotArea>
@@ -575,7 +613,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000089" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000089" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.750000000000001" l="0.70000000000000062" r="0.70000000000000062" t="0.750000000000001" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -585,16 +623,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>923925</xdr:colOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>847724</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:rowOff>142875</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>447675</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>752475</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>95251</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -926,8 +964,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:N34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="L17" sqref="L17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>

--- a/trunk/resultados/mutacion_cruzamiento.xlsx
+++ b/trunk/resultados/mutacion_cruzamiento.xlsx
@@ -461,12 +461,12 @@
           </c:val>
         </c:ser>
         <c:shape val="box"/>
-        <c:axId val="60626048"/>
-        <c:axId val="60628352"/>
-        <c:axId val="79798720"/>
+        <c:axId val="71448832"/>
+        <c:axId val="71471872"/>
+        <c:axId val="69312960"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="60626048"/>
+        <c:axId val="71448832"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -495,7 +495,7 @@
             <c:manualLayout>
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
-              <c:x val="0.37153113660937848"/>
+              <c:x val="0.37153113660937842"/>
               <c:y val="0.80870275538738889"/>
             </c:manualLayout>
           </c:layout>
@@ -512,14 +512,14 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="60628352"/>
+        <c:crossAx val="71471872"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="60628352"/>
+        <c:axId val="71471872"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -555,12 +555,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="60626048"/>
+        <c:crossAx val="71448832"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:serAx>
-        <c:axId val="79798720"/>
+        <c:axId val="69312960"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -589,8 +589,8 @@
             <c:manualLayout>
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
-              <c:x val="0.84494631584838753"/>
-              <c:y val="0.67024811963685116"/>
+              <c:x val="0.84494631584838764"/>
+              <c:y val="0.67024811963685138"/>
             </c:manualLayout>
           </c:layout>
         </c:title>
@@ -605,7 +605,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="60628352"/>
+        <c:crossAx val="71471872"/>
         <c:crosses val="autoZero"/>
       </c:serAx>
     </c:plotArea>
@@ -613,7 +613,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.750000000000001" l="0.70000000000000062" r="0.70000000000000062" t="0.750000000000001" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000111" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000111" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -623,16 +623,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>847724</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>609599</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>752475</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>95251</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>161926</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -964,7 +964,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:N34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
       <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
